--- a/medicine/Enfance/Aurore_Petit/Aurore_Petit.xlsx
+++ b/medicine/Enfance/Aurore_Petit/Aurore_Petit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aurore Petit, née le 27 septembre 1981 à Troyes[1], est une illustratrice et autrice de littérature jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aurore Petit, née le 27 septembre 1981 à Troyes, est une illustratrice et autrice de littérature jeunesse.
 </t>
         </is>
       </c>
@@ -511,17 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurore Petit grandit en Haute-Savoie.
-Elle est diplômée de l'École supérieure des arts décoratifs de Strasbourg en 2006[1].
-Aurore Petit est représentée par l'agence Patricia Lucas pour des travaux de commande dans la communication ou la presse[2],[3].
-Après avoir vécu à Paris, elle vit et travaille à Nantes[1],[4].
-En 2023, elle est invitée d'honneur de la Fête du livre jeunesse de Villeurbanne[5]. À ce titre une exposition rétrospective, « La grande expo d’Aurore Petit », est consacrée à son travail[5].
-Ouvrages
-Son premier livre, Ménageries, sort en 2008 chez Thierry Magnier[2]. On y trouve déjà une bonne partie de ce qui fera son univers : « des personnages installés sur une scène qui posent et regardent le lecteur, le ton un peu surréaliste, les situations un peu absurdes »[6]. Plutôt que sur une histoire, ses livres sont construits autour de séries d'images, autour d'une règle narrative ou graphique[6].
-Elle collabore régulièrement avec son compagnon Jean-Marc Mathis, notamment sur la série Dolorès Wilson (2014-2022)[2],[6]. Cette série est adapté en 2021 au théâtre par la compagnie Les Belles oreilles[7].
-En 2019 son album Une maman, c'est comme une maison, salué par la critique[8],[9], remporte le Prix Millepages catégorie « albums jeunesse »[10]. Ce livre est suivi par Bébé ventre, paru en 2021[11],[12] et La petite sœur est un diplodocus paru en 2022[13].
+Elle est diplômée de l'École supérieure des arts décoratifs de Strasbourg en 2006.
+Aurore Petit est représentée par l'agence Patricia Lucas pour des travaux de commande dans la communication ou la presse,.
+Après avoir vécu à Paris, elle vit et travaille à Nantes,.
+En 2023, elle est invitée d'honneur de la Fête du livre jeunesse de Villeurbanne. À ce titre une exposition rétrospective, « La grande expo d’Aurore Petit », est consacrée à son travail.
 </t>
         </is>
       </c>
@@ -547,12 +557,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier livre, Ménageries, sort en 2008 chez Thierry Magnier. On y trouve déjà une bonne partie de ce qui fera son univers : « des personnages installés sur une scène qui posent et regardent le lecteur, le ton un peu surréaliste, les situations un peu absurdes ». Plutôt que sur une histoire, ses livres sont construits autour de séries d'images, autour d'une règle narrative ou graphique.
+Elle collabore régulièrement avec son compagnon Jean-Marc Mathis, notamment sur la série Dolorès Wilson (2014-2022),. Cette série est adapté en 2021 au théâtre par la compagnie Les Belles oreilles.
+En 2019 son album Une maman, c'est comme une maison, salué par la critique remporte le Prix Millepages catégorie « albums jeunesse ». Ce livre est suivi par Bébé ventre, paru en 2021, et La petite sœur est un diplodocus paru en 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aurore_Petit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_Petit</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2019 : Prix Millepages catégorie « albums jeunesse » pour Une maman, c'est comme une maison[10]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2019 : Prix Millepages catégorie « albums jeunesse » pour Une maman, c'est comme une maison</t>
         </is>
       </c>
     </row>
